--- a/data/data_doses_2023-11-24_LSR3_H.xlsx
+++ b/data/data_doses_2023-11-24_LSR3_H.xlsx
@@ -489,16 +489,16 @@
         <v>-16.9</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>19.07</v>
       </c>
       <c r="F3">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G3">
         <v>-19.3</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>18.06</v>
       </c>
       <c r="I3">
         <v>72</v>
@@ -507,10 +507,10 @@
         <v>2</v>
       </c>
       <c r="K3">
-        <v>0.1195808266269627</v>
+        <v>0.127629525937716</v>
       </c>
       <c r="L3">
-        <v>0.02081838894043877</v>
+        <v>0.02096920151256492</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -536,7 +536,7 @@
         <v>-19.6</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>19.27</v>
       </c>
       <c r="F4">
         <v>145</v>
@@ -545,7 +545,7 @@
         <v>-19.3</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>18.06</v>
       </c>
       <c r="I4">
         <v>72</v>
@@ -554,10 +554,10 @@
         <v>2</v>
       </c>
       <c r="K4">
-        <v>-0.01494760332837036</v>
+        <v>-0.01583516682992753</v>
       </c>
       <c r="L4">
-        <v>0.02078595543064263</v>
+        <v>0.0207860183837838</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -583,16 +583,16 @@
         <v>-16.4</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>18.55</v>
       </c>
       <c r="F5">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G5">
         <v>-14.3</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>18.67</v>
       </c>
       <c r="I5">
         <v>77</v>
@@ -601,10 +601,10 @@
         <v>2</v>
       </c>
       <c r="K5">
-        <v>-0.1046556749312258</v>
+        <v>-0.1125913698497899</v>
       </c>
       <c r="L5">
-        <v>0.01950422686211106</v>
+        <v>0.01955051899631097</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -630,16 +630,16 @@
         <v>-18.1</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>18.49</v>
       </c>
       <c r="F6">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G6">
         <v>-14.3</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>18.67</v>
       </c>
       <c r="I6">
         <v>77</v>
@@ -648,10 +648,10 @@
         <v>2</v>
       </c>
       <c r="K6">
-        <v>-0.1893769355898374</v>
+        <v>-0.2041690083470224</v>
       </c>
       <c r="L6">
-        <v>0.01955814637171731</v>
+        <v>0.01965697560427554</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
